--- a/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3768,7 +3768,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5382</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3547</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8073</t>
+          <t>6649</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12656</t>
+          <t>13075</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10003</t>
+          <t>10519</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>15809</t>
+          <t>16252</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>18039</t>
+          <t>17793</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14874</t>
+          <t>14265</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>22534</t>
+          <t>21063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82461</t>
+          <t>77498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79770</t>
+          <t>75567</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>84296</t>
+          <t>79009</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,96%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>114988</t>
+          <t>108311</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>111835</t>
+          <t>105134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>117641</t>
+          <t>110867</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>92,16%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>197449</t>
+          <t>185810</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>192954</t>
+          <t>182540</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>189338</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,63%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,54%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,1%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,32 +1079,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>18581</t>
+          <t>17524</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15159</t>
+          <t>14254</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22883</t>
+          <t>21652</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1114,32 +1114,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>30636</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25973</t>
+          <t>25590</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35422</t>
+          <t>34804</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>49217</t>
+          <t>47506</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>44194</t>
+          <t>42032</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>55305</t>
+          <t>54037</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -1192,32 +1192,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>433384</t>
+          <t>443314</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>429082</t>
+          <t>439186</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>436806</t>
+          <t>446584</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1227,32 +1227,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>401021</t>
+          <t>414994</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>396235</t>
+          <t>410173</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>405684</t>
+          <t>419387</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,79%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>834405</t>
+          <t>858309</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>828317</t>
+          <t>851778</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>839428</t>
+          <t>863783</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,43%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3805</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>3038</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5924</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,92%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9504</t>
+          <t>10548</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7263</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12356</t>
+          <t>13387</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>13309</t>
+          <t>15248</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>10448</t>
+          <t>12240</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>16461</t>
+          <t>18784</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,65%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147214</t>
+          <t>170664</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>145095</t>
+          <t>168268</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>148604</t>
+          <t>172326</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,08%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,4%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>185176</t>
+          <t>217985</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>182324</t>
+          <t>215146</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>187417</t>
+          <t>220643</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,12%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,65%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>332390</t>
+          <t>388649</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>329238</t>
+          <t>385113</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>335251</t>
+          <t>391657</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23116</t>
+          <t>22639</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32198</t>
+          <t>31760</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52797</t>
+          <t>53605</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46701</t>
+          <t>48087</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59429</t>
+          <t>60305</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>80565</t>
+          <t>80548</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>72918</t>
+          <t>73543</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88517</t>
+          <t>88790</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>663058</t>
+          <t>691477</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>658629</t>
+          <t>686659</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>667711</t>
+          <t>695780</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>95,98%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,34%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>701184</t>
+          <t>741291</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>694552</t>
+          <t>734591</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>707280</t>
+          <t>746809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,0%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1364244</t>
+          <t>1432767</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1356292</t>
+          <t>1424525</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1371891</t>
+          <t>1439772</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>94,95%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>18556</t>
+          <t>17504</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35990</t>
+          <t>35612</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,76%</t>
+          <t>15,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2387,12 +2387,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>67876</t>
+          <t>66068</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>93213</t>
+          <t>92591</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>90836</t>
+          <t>89921</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>119914</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2437,12 +2437,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,2%</t>
+          <t>19,22%</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>192307</t>
+          <t>192685</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>209741</t>
+          <t>210793</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,24%</t>
+          <t>84,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>302984</t>
+          <t>303606</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>328321</t>
+          <t>330129</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2515,12 +2515,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>76,47%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>83,32%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2535,12 +2535,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>504580</t>
+          <t>504494</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>533658</t>
+          <t>534573</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2550,12 +2550,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,8%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,45%</t>
+          <t>85,6%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35521</t>
+          <t>35910</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>85177</t>
+          <t>84317</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2730,12 +2730,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>83429</t>
+          <t>82217</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>175525</t>
+          <t>170857</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2765,12 +2765,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>140895</t>
+          <t>134139</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>245184</t>
+          <t>244952</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,77%</t>
         </is>
       </c>
     </row>
@@ -2808,12 +2808,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1323497</t>
+          <t>1324357</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1373153</t>
+          <t>1372764</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>94,01%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,45%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2843,12 +2843,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1209515</t>
+          <t>1214183</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1301611</t>
+          <t>1302823</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>87,66%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>94,06%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2548530</t>
+          <t>2548762</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2652819</t>
+          <t>2659575</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2893,12 +2893,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>91,23%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -3038,12 +3038,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17462</t>
+          <t>17263</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>39188</t>
+          <t>37769</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,54%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3073,12 +3073,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20590</t>
+          <t>20593</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41663</t>
+          <t>41436</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3093,7 +3093,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3108,12 +3108,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43325</t>
+          <t>43882</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>74035</t>
+          <t>71903</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3123,12 +3123,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>7,97%</t>
         </is>
       </c>
     </row>
@@ -3151,12 +3151,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>419781</t>
+          <t>421200</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>441507</t>
+          <t>441706</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,77%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3186,12 +3186,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>401711</t>
+          <t>401938</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>422784</t>
+          <t>422781</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,6%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>828308</t>
+          <t>830440</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>859018</t>
+          <t>858461</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>92,03%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78514</t>
+          <t>77653</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>142080</t>
+          <t>142348</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3396,12 +3396,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,79%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3416,12 +3416,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>177494</t>
+          <t>179923</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>284647</t>
+          <t>283943</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3431,12 +3431,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3451,12 +3451,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>277880</t>
+          <t>287107</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>409434</t>
+          <t>413801</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3466,12 +3466,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,58%</t>
         </is>
       </c>
     </row>
@@ -3494,12 +3494,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1953860</t>
+          <t>1953592</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2017426</t>
+          <t>2018287</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,21%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3529,12 +3529,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1939964</t>
+          <t>1940668</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2047117</t>
+          <t>2044688</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,2%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3564,12 +3564,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3911117</t>
+          <t>3906750</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4042671</t>
+          <t>4033444</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,35%</t>
         </is>
       </c>
     </row>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12226</t>
+          <t>12040</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27974</t>
+          <t>27651</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5589,12 +5589,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5609,12 +5609,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37600</t>
+          <t>38480</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>58121</t>
+          <t>57742</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5624,12 +5624,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>48,45%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5644,12 +5644,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>53548</t>
+          <t>53024</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>80874</t>
+          <t>79541</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5659,12 +5659,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>37,01%</t>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -5687,12 +5687,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70581</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86329</t>
+          <t>86515</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5702,12 +5702,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,62%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,59%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5722,12 +5722,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>61831</t>
+          <t>62210</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>82352</t>
+          <t>81472</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5737,12 +5737,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>51,55%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>68,65%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5757,12 +5757,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>137633</t>
+          <t>138966</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>164959</t>
+          <t>165483</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5772,12 +5772,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>62,99%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>75,49%</t>
+          <t>75,73%</t>
         </is>
       </c>
     </row>
@@ -5917,12 +5917,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52909</t>
+          <t>53125</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>72531</t>
+          <t>73221</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5932,12 +5932,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5952,12 +5952,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>88736</t>
+          <t>88836</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>111891</t>
+          <t>113269</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5967,12 +5967,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,05%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5987,12 +5987,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>146227</t>
+          <t>146419</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>178011</t>
+          <t>177574</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -6002,12 +6002,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -6030,12 +6030,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>284328</t>
+          <t>283638</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>303950</t>
+          <t>303734</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -6045,12 +6045,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -6065,12 +6065,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>242294</t>
+          <t>240916</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>265449</t>
+          <t>265349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -6080,12 +6080,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,41%</t>
+          <t>68,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533033</t>
+          <t>533470</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>564817</t>
+          <t>564625</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -6115,12 +6115,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>74,96%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>79,43%</t>
+          <t>79,41%</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19079</t>
+          <t>19208</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31985</t>
+          <t>31885</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>57027</t>
+          <t>56821</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>77208</t>
+          <t>76722</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,27%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>79949</t>
+          <t>80085</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>102472</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -6373,12 +6373,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>192625</t>
+          <t>192725</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>205531</t>
+          <t>205402</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6388,12 +6388,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,76%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,51%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6408,12 +6408,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>205923</t>
+          <t>206409</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>226104</t>
+          <t>226310</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6423,12 +6423,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6443,12 +6443,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>405269</t>
+          <t>403419</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427792</t>
+          <t>427656</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>79,82%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>84,23%</t>
         </is>
       </c>
     </row>
@@ -6603,12 +6603,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>92044</t>
+          <t>93121</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>120695</t>
+          <t>120254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,75%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>196184</t>
+          <t>194522</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>234146</t>
+          <t>230934</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>294981</t>
+          <t>294496</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>341046</t>
+          <t>341852</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,73%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -6716,12 +6716,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>559329</t>
+          <t>559770</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>587980</t>
+          <t>586903</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,25%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,46%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>523122</t>
+          <t>526334</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>561084</t>
+          <t>562746</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>69,08%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,09%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1096246</t>
+          <t>1095440</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1142311</t>
+          <t>1142796</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>79,51%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Estudios-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,107 +731,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4718</t>
+          <t>27019</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>18824</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6649</t>
+          <t>37320</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>140</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13075</t>
+          <t>89202</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10519</t>
+          <t>74756</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>16252</t>
+          <t>103702</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>13,39%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>172</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>17793</t>
+          <t>116222</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>14265</t>
+          <t>99828</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>21063</t>
+          <t>133238</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>16,86%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>14,48%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>19,33%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>258</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77498</t>
+          <t>228373</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75567</t>
+          <t>218072</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79009</t>
+          <t>236568</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,26%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>85,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>557</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>108311</t>
+          <t>344594</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>105134</t>
+          <t>330094</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>110867</t>
+          <t>359040</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>79,44%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>76,09%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,33%</t>
+          <t>82,77%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>815</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>185810</t>
+          <t>572967</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>182540</t>
+          <t>555951</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>189338</t>
+          <t>589361</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>80,67%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>85,52%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433796</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>987</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>689189</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17524</t>
+          <t>70455</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14254</t>
+          <t>54860</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21652</t>
+          <t>90406</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>7,03%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>207</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29983</t>
+          <t>150561</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25590</t>
+          <t>130313</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34804</t>
+          <t>170849</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>11,86%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,82%</t>
+          <t>13,45%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>273</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>47506</t>
+          <t>221016</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>42032</t>
+          <t>195391</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>54037</t>
+          <t>251947</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>9,85%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>1044</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>443314</t>
+          <t>1216364</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>439186</t>
+          <t>1196413</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>446584</t>
+          <t>1231959</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>94,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>1431</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>414994</t>
+          <t>1119411</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>410173</t>
+          <t>1099123</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>419387</t>
+          <t>1139659</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>92,18%</t>
+          <t>86,55%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4864</t>
+          <t>2475</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>858309</t>
+          <t>2335775</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>851778</t>
+          <t>2304844</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>863783</t>
+          <t>2361400</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,76%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>90,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>92,36%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>29885</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3038</t>
+          <t>19130</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7096</t>
+          <t>42310</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>10548</t>
+          <t>33284</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7890</t>
+          <t>24268</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>13387</t>
+          <t>45400</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>70</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>15248</t>
+          <t>63169</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>12240</t>
+          <t>49391</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>18784</t>
+          <t>80648</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>8,03%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>881</t>
+          <t>458</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>170664</t>
+          <t>479071</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>168268</t>
+          <t>466646</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172326</t>
+          <t>489826</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>91,69%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1144</t>
+          <t>624</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>217985</t>
+          <t>462622</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>215146</t>
+          <t>450506</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>220643</t>
+          <t>471638</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>95,11%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1082</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>388649</t>
+          <t>941693</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>385113</t>
+          <t>924214</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>391657</t>
+          <t>955471</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>91,97%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>486</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>508956</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1004862</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26942</t>
+          <t>127359</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22639</t>
+          <t>106352</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>31760</t>
+          <t>151429</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>5,18%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>389</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>53605</t>
+          <t>273048</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48087</t>
+          <t>243087</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60305</t>
+          <t>299514</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>515</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>80548</t>
+          <t>400407</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>73543</t>
+          <t>367384</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>88790</t>
+          <t>439775</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>8,64%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3892</t>
+          <t>1760</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>691477</t>
+          <t>1923808</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>686659</t>
+          <t>1899738</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>695780</t>
+          <t>1944815</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>93,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>92,62%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,85%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4140</t>
+          <t>2612</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>741291</t>
+          <t>1926627</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>734591</t>
+          <t>1900161</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>746809</t>
+          <t>1956588</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,41%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>88,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8032</t>
+          <t>4372</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1432767</t>
+          <t>3850435</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1424525</t>
+          <t>3811067</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1439772</t>
+          <t>3883458</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,13%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>91,36%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>1886</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2051167</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2051167</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2051167</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>3001</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2199675</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2199675</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2199675</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>4887</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4250842</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4250842</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4250842</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2157,7 +2157,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2342,107 +2342,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25587</t>
+          <t>18647</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17504</t>
+          <t>12040</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35612</t>
+          <t>27651</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>18,92%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>28,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>79418</t>
+          <t>47423</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>66068</t>
+          <t>38480</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>92591</t>
+          <t>57742</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>39,53%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>48,14%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>105006</t>
+          <t>66070</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>89921</t>
+          <t>53024</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>79541</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>30,24%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>19,22%</t>
+          <t>36,4%</t>
         </is>
       </c>
     </row>
@@ -2455,107 +2455,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>148</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>202710</t>
+          <t>79908</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>192685</t>
+          <t>70904</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>210793</t>
+          <t>86515</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>88,79%</t>
+          <t>81,08%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,4%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>193</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>316779</t>
+          <t>72529</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>303606</t>
+          <t>62210</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>330129</t>
+          <t>81472</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>79,95%</t>
+          <t>60,47%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>51,86%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>83,32%</t>
+          <t>67,92%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>815</t>
+          <t>341</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>519488</t>
+          <t>152437</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>504494</t>
+          <t>138966</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>534573</t>
+          <t>165483</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>69,76%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>80,78%</t>
+          <t>63,6%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,6%</t>
+          <t>75,73%</t>
         </is>
       </c>
     </row>
@@ -2568,22 +2568,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>195</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>98555</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2603,22 +2603,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>296</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>119952</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>119952</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>396197</t>
+          <t>119952</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2638,22 +2638,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>491</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>218507</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>218507</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>624494</t>
+          <t>218507</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2685,107 +2685,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>138</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62562</t>
+          <t>62047</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35910</t>
+          <t>53125</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84317</t>
+          <t>73221</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>14,89%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>20,52%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>227</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>136370</t>
+          <t>99939</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>82217</t>
+          <t>88836</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>170857</t>
+          <t>113269</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>28,22%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>25,08%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,34%</t>
+          <t>31,98%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>365</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>198931</t>
+          <t>161986</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>134139</t>
+          <t>146419</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>244952</t>
+          <t>177574</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>22,78%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>20,59%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>8,77%</t>
+          <t>24,97%</t>
         </is>
       </c>
     </row>
@@ -2798,107 +2798,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1044</t>
+          <t>657</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1346112</t>
+          <t>294812</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1324357</t>
+          <t>283638</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1372764</t>
+          <t>303734</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>82,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,01%</t>
+          <t>79,48%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>85,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1431</t>
+          <t>581</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1248670</t>
+          <t>254246</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1214183</t>
+          <t>240916</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1302823</t>
+          <t>265349</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,15%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>87,66%</t>
+          <t>68,02%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2475</t>
+          <t>1238</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>2594783</t>
+          <t>549058</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2548762</t>
+          <t>533470</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2659575</t>
+          <t>564625</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>77,22%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,23%</t>
+          <t>75,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>79,41%</t>
         </is>
       </c>
     </row>
@@ -2911,22 +2911,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>795</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>356859</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>356859</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>356859</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2946,22 +2946,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>808</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>354185</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>354185</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>354185</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2981,22 +2981,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>1603</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>711044</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>711044</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>711044</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3028,107 +3028,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26499</t>
+          <t>24785</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17263</t>
+          <t>19208</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>37769</t>
+          <t>31885</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>181</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29334</t>
+          <t>66162</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>20593</t>
+          <t>56821</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41436</t>
+          <t>76722</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>20,07%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>255</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>55833</t>
+          <t>90947</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43882</t>
+          <t>80085</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>71903</t>
+          <t>104322</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>15,77%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>20,55%</t>
         </is>
       </c>
     </row>
@@ -3141,107 +3141,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>432470</t>
+          <t>199825</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>421200</t>
+          <t>192725</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>441706</t>
+          <t>205402</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>88,97%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>85,8%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>624</t>
+          <t>581</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>414040</t>
+          <t>216969</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>401938</t>
+          <t>206409</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>422781</t>
+          <t>226310</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>76,63%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>72,9%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>79,93%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1082</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>846510</t>
+          <t>416794</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>830440</t>
+          <t>403419</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>858461</t>
+          <t>427656</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,81%</t>
+          <t>82,09%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>79,45%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>84,23%</t>
         </is>
       </c>
     </row>
@@ -3254,22 +3254,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>458969</t>
+          <t>224610</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3289,22 +3289,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>762</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>283131</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3324,22 +3324,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1152</t>
+          <t>1405</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>902343</t>
+          <t>507741</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3371,107 +3371,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>259</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>114648</t>
+          <t>105479</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>77653</t>
+          <t>93121</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>142348</t>
+          <t>120254</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>15,51%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>13,69%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>511</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>245123</t>
+          <t>213524</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>179923</t>
+          <t>194522</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>283943</t>
+          <t>230934</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>770</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>359771</t>
+          <t>319002</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>287107</t>
+          <t>294496</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>413801</t>
+          <t>341852</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,33%</t>
+          <t>22,19%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>20,49%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>23,78%</t>
         </is>
       </c>
     </row>
@@ -3484,107 +3484,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1760</t>
+          <t>1374</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1981292</t>
+          <t>574545</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1953592</t>
+          <t>559770</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2018287</t>
+          <t>586903</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>93,21%</t>
+          <t>82,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2612</t>
+          <t>1355</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1979488</t>
+          <t>543744</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1940668</t>
+          <t>526334</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2044688</t>
+          <t>562746</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,98%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>69,5%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>91,91%</t>
+          <t>74,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4372</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3960780</t>
+          <t>1118290</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>3906750</t>
+          <t>1095440</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4033444</t>
+          <t>1142796</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,67%</t>
+          <t>77,81%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>79,51%</t>
         </is>
       </c>
     </row>
@@ -3597,22 +3597,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1633</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2095940</t>
+          <t>680024</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2095940</t>
+          <t>680024</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2095940</t>
+          <t>680024</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3632,22 +3632,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>1866</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2224611</t>
+          <t>757268</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2224611</t>
+          <t>757268</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2224611</t>
+          <t>757268</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3667,22 +3667,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>3499</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4320551</t>
+          <t>1437292</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4320551</t>
+          <t>1437292</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4320551</t>
+          <t>1437292</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5379,7 +5379,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5564,107 +5564,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18647</t>
+          <t>4718</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12040</t>
+          <t>3207</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27651</t>
+          <t>6649</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>18,92%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,06%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>82</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>47423</t>
+          <t>13075</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>38480</t>
+          <t>10519</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>57742</t>
+          <t>16252</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>32,08%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>48,14%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>66070</t>
+          <t>17793</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>53024</t>
+          <t>14265</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>79541</t>
+          <t>21063</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>30,24%</t>
+          <t>8,74%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>36,4%</t>
+          <t>10,35%</t>
         </is>
       </c>
     </row>
@@ -5677,107 +5677,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>472</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79908</t>
+          <t>77498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>70904</t>
+          <t>75567</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86515</t>
+          <t>79009</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>81,08%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>91,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,78%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>671</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72529</t>
+          <t>108311</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>62210</t>
+          <t>105134</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>81472</t>
+          <t>110867</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>60,47%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>51,86%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>67,92%</t>
+          <t>91,33%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>152437</t>
+          <t>185810</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>138966</t>
+          <t>182540</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>165483</t>
+          <t>189338</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>69,76%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>63,6%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>75,73%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -5790,22 +5790,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>98555</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5825,22 +5825,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>119952</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>119952</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>119952</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5860,22 +5860,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>218507</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>218507</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>218507</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5907,107 +5907,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62047</t>
+          <t>17524</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53125</t>
+          <t>14254</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73221</t>
+          <t>21652</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,39%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,89%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>20,52%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>178</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>99939</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>88836</t>
+          <t>25590</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>113269</t>
+          <t>34804</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>278</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>161986</t>
+          <t>47506</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>146419</t>
+          <t>42032</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>177574</t>
+          <t>54037</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>22,78%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>5,97%</t>
         </is>
       </c>
     </row>
@@ -6020,107 +6020,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>294812</t>
+          <t>443314</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>283638</t>
+          <t>439186</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>303734</t>
+          <t>446584</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>82,61%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>95,3%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>2325</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>254246</t>
+          <t>414994</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>240916</t>
+          <t>410173</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>265349</t>
+          <t>419387</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>71,78%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>74,92%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>1238</t>
+          <t>4864</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>549058</t>
+          <t>858309</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>533470</t>
+          <t>851778</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>564625</t>
+          <t>863783</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>77,22%</t>
+          <t>94,76%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>75,03%</t>
+          <t>94,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>79,41%</t>
+          <t>95,36%</t>
         </is>
       </c>
     </row>
@@ -6133,22 +6133,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>795</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>356859</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>356859</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>356859</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6168,22 +6168,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>354185</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>354185</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>354185</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6203,22 +6203,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1603</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>711044</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>711044</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>711044</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6250,107 +6250,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>25</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24785</t>
+          <t>4700</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19208</t>
+          <t>3038</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>31885</t>
+          <t>7096</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66162</t>
+          <t>10548</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>56821</t>
+          <t>7890</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>76722</t>
+          <t>13387</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>20,07%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,1%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>83</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>90947</t>
+          <t>15248</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>80085</t>
+          <t>12240</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>104322</t>
+          <t>18784</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>17,91%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,77%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>20,55%</t>
+          <t>4,65%</t>
         </is>
       </c>
     </row>
@@ -6363,107 +6363,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>881</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>199825</t>
+          <t>170664</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>192725</t>
+          <t>168268</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>205402</t>
+          <t>172326</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>97,32%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>98,27%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>581</t>
+          <t>1144</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>216969</t>
+          <t>217985</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>206409</t>
+          <t>215146</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>226310</t>
+          <t>220643</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>76,63%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>72,9%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>79,93%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>2025</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>416794</t>
+          <t>388649</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>403419</t>
+          <t>385113</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>427656</t>
+          <t>391657</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>82,09%</t>
+          <t>96,22%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>79,45%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -6476,22 +6476,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>224610</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6511,22 +6511,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>762</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>283131</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6546,22 +6546,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>507741</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6593,107 +6593,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>105479</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93121</t>
+          <t>22639</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>120254</t>
+          <t>31760</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,69%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>318</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>213524</t>
+          <t>53605</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>194522</t>
+          <t>48087</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>230934</t>
+          <t>60305</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>6,74%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>25,69%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>30,5%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>472</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>319002</t>
+          <t>80548</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>294496</t>
+          <t>73543</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>341852</t>
+          <t>88790</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>20,49%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>5,87%</t>
         </is>
       </c>
     </row>
@@ -6706,107 +6706,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1374</t>
+          <t>3892</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>574545</t>
+          <t>691477</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>559770</t>
+          <t>686659</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>586903</t>
+          <t>695780</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>84,49%</t>
+          <t>96,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>82,32%</t>
+          <t>95,58%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,31%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1355</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>543744</t>
+          <t>741291</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>526334</t>
+          <t>734591</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>562746</t>
+          <t>746809</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>93,26%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>69,5%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>8032</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1118290</t>
+          <t>1432767</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1095440</t>
+          <t>1424525</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1142796</t>
+          <t>1439772</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>77,81%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>76,22%</t>
+          <t>94,13%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>79,51%</t>
+          <t>95,14%</t>
         </is>
       </c>
     </row>
@@ -6819,22 +6819,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1633</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>680024</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>680024</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>680024</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6854,22 +6854,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>757268</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>757268</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>757268</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6889,22 +6889,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>3499</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1437292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1437292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1437292</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
